--- a/statistics/HistoricalDistanceData/historical_distance/Q4621984-en.xlsx
+++ b/statistics/HistoricalDistanceData/historical_distance/Q4621984-en.xlsx
@@ -31,46 +31,67 @@
     <t>uri</t>
   </si>
   <si>
+    <t>Tornado Damages Connecticut River Walk in Springfield, Mass.</t>
+  </si>
+  <si>
+    <t>Gov. Deval Patrick requests federal disaster aid for tornadoes</t>
+  </si>
+  <si>
+    <t>Massachusetts Tornadoes: At Least 3 Dead; Springfield, Westfield Hard Hit</t>
+  </si>
+  <si>
+    <t>Victims lament Massachusetts tornadoes’ huge toll</t>
+  </si>
+  <si>
+    <t>65 years ago, nightmare tornado killed 94 Central Mass.</t>
+  </si>
+  <si>
+    <t>Springfield tornado death toll at 3; Massachusetts Congressional delegation appeals to President Obama for disaster declaration</t>
+  </si>
+  <si>
+    <t>Massachusetts digs out after three tornadoes kill 3, hurt 200</t>
+  </si>
+  <si>
+    <t>40 years ago today, a tornado ripped through West Stockbridge</t>
+  </si>
+  <si>
+    <t>Insurance claims for tornadoes hit $140m</t>
+  </si>
+  <si>
     <t>Brother’s tornado death rocks West Springfield family</t>
   </si>
   <si>
-    <t>Massachusetts digs out after three tornadoes kill 3, hurt 200</t>
-  </si>
-  <si>
-    <t>40 years ago today, a tornado ripped through West Stockbridge</t>
+    <t>Mother gives up life to save her daughter during tornado</t>
   </si>
   <si>
     <t>Cathedral High School: A review of the latest stories on future of Springfield school</t>
   </si>
   <si>
+    <t>Red Cross Helping After Tornadoes Tear Through Massachusetts</t>
+  </si>
+  <si>
     <t>Springfield Massachusetts tornado and other June 1st storms on the Storm Time Machine</t>
   </si>
   <si>
-    <t>Springfield tornado death toll at 3; Massachusetts Congressional delegation appeals to President Obama for disaster declaration</t>
-  </si>
-  <si>
-    <t>Victims lament Massachusetts tornadoes’ huge toll</t>
-  </si>
-  <si>
-    <t>Gov. Deval Patrick requests federal disaster aid for tornadoes</t>
-  </si>
-  <si>
-    <t>Red Cross Helping After Tornadoes Tear Through Massachusetts</t>
-  </si>
-  <si>
-    <t>Insurance claims for tornadoes hit $140m</t>
-  </si>
-  <si>
-    <t>Tornado Damages Connecticut River Walk in Springfield, Mass.</t>
-  </si>
-  <si>
-    <t>65 years ago, nightmare tornado killed 94 Central Mass.</t>
-  </si>
-  <si>
-    <t>Massachusetts Tornadoes: At Least 3 Dead; Springfield, Westfield Hard Hit</t>
-  </si>
-  <si>
-    <t>Mother gives up life to save her daughter during tornado</t>
+    <t>Hundreds still homeless after tornadoes</t>
+  </si>
+  <si>
+    <t>National Weather Service Text Product Display</t>
+  </si>
+  <si>
+    <t>In Brimfield, terror -- and death -- arrived in a cloud laden with debris</t>
+  </si>
+  <si>
+    <t>Storm Prediction Center Severe Thunderstorm Watch 411</t>
+  </si>
+  <si>
+    <t>Tornado History Project: 20110601.25.1</t>
+  </si>
+  <si>
+    <t>Tornado History Project: Massachusetts</t>
+  </si>
+  <si>
+    <t>News and Information from Northampton, MA by the Daily Hampshire Gazette</t>
   </si>
   <si>
     <t>Storm Prediction Center Severe Thunderstorm Watch 410</t>
@@ -79,124 +100,124 @@
     <t>Massachusetts Severe Storms and Tornadoes</t>
   </si>
   <si>
-    <t>In Brimfield, terror -- and death -- arrived in a cloud laden with debris</t>
-  </si>
-  <si>
-    <t>Tornado History Project: 20110601.25.1</t>
-  </si>
-  <si>
     <t>Annual Fatal Tornado Summaries</t>
   </si>
   <si>
-    <t>News and Information from Northampton, MA by the Daily Hampshire Gazette</t>
-  </si>
-  <si>
-    <t>Tornado History Project: Massachusetts</t>
-  </si>
-  <si>
     <t>Helping Homeless Tornado Victims</t>
   </si>
   <si>
-    <t>Hundreds still homeless after tornadoes</t>
-  </si>
-  <si>
-    <t>Storm Prediction Center Severe Thunderstorm Watch 411</t>
-  </si>
-  <si>
-    <t>National Weather Service Text Product Display</t>
+    <t>2011-06-08T10:24:00UTC</t>
+  </si>
+  <si>
+    <t>2011-06-11T00:00:00UTC</t>
   </si>
   <si>
     <t>2011-06-02T00:00:00UTC</t>
   </si>
   <si>
+    <t>2011-06-03T00:00:00UTC</t>
+  </si>
+  <si>
+    <t>2018-06-09T07:00:00UTC</t>
+  </si>
+  <si>
+    <t>2011-06-03T06:00:07UTC</t>
+  </si>
+  <si>
     <t>2011-06-01T00:00:00UTC</t>
   </si>
   <si>
     <t>2013-08-28T06:05:12UTC</t>
   </si>
   <si>
+    <t>2011-06-18T00:00:00UTC</t>
+  </si>
+  <si>
     <t>2015-01-31T12:05:06UTC</t>
   </si>
   <si>
-    <t>2011-06-03T06:00:07UTC</t>
-  </si>
-  <si>
-    <t>2011-06-03T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2011-06-11T00:00:00UTC</t>
-  </si>
-  <si>
     <t>2011-06-02T13:00:00UTC</t>
   </si>
   <si>
-    <t>2011-06-18T00:00:00UTC</t>
-  </si>
-  <si>
-    <t>2011-06-08T10:24:00UTC</t>
-  </si>
-  <si>
-    <t>2018-06-09T07:00:00UTC</t>
-  </si>
-  <si>
     <t>1-01-01T00:00:00UTC</t>
   </si>
   <si>
     <t>unknown</t>
   </si>
   <si>
+    <t>day_2_to_30</t>
+  </si>
+  <si>
     <t>day_1</t>
   </si>
   <si>
+    <t>day_31_beyond</t>
+  </si>
+  <si>
     <t>day_0</t>
   </si>
   <si>
-    <t>day_31_beyond</t>
-  </si>
-  <si>
-    <t>day_2_to_30</t>
+    <t>https://web.archive.org/web/20110611080404/http://community.railstotrails.org/blogs/trailblog/archive/2011/06/03/tornado-damages-springfield-riverwalk-in-massachusetts.aspx</t>
+  </si>
+  <si>
+    <t>http://www.bostonherald.com/news/regional/view/2011_0611gov_patrick_requests_federal_disaster_aid_for_tornadoes/</t>
+  </si>
+  <si>
+    <t>https://abcnews.go.com/US/massachusetts-rocked-multiple-tornadoes-including-city-springfield-possibly/story?id=13737522&amp;sms_ss=facebook&amp;at_xt=4de6f2afa93a9b3a,0</t>
+  </si>
+  <si>
+    <t>http://www.boston.com/news/local/massachusetts/articles/2011/06/03/victims_lament_massachusetts_tornadoes_huge_toll/</t>
+  </si>
+  <si>
+    <t>https://www.telegram.com/news/20180609/65-years-ago-nightmare-tornado-killed-94-central-mass</t>
+  </si>
+  <si>
+    <t>http://www.masslive.com/news/index.ssf/2011/06/springfield_tornado_death_toll.html</t>
+  </si>
+  <si>
+    <t>http://www.myfoxboston.com/dpp/weather/tornado-damage-reported-in-springfield-25-apx-20110601</t>
+  </si>
+  <si>
+    <t>https://www.berkshireeagle.com/stories/40-years-ago-today-a-tornado-ripped-through-west-stockbridge,400213</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20120406092705/http://articles.boston.com/2011-06-18/news/29674671_1_recovery-centers-insurance-claims-fema</t>
   </si>
   <si>
     <t>http://news.bostonherald.com/news/regional/view/2011_0602brothers_tornado_death_rocks_west_springfield_family/</t>
   </si>
   <si>
-    <t>http://www.myfoxboston.com/dpp/weather/tornado-damage-reported-in-springfield-25-apx-20110601</t>
-  </si>
-  <si>
-    <t>https://www.berkshireeagle.com/stories/40-years-ago-today-a-tornado-ripped-through-west-stockbridge,400213</t>
+    <t>https://web.archive.org/web/20110603111417/http://www.boston.com/news/weather/articles/2011/06/03/mother_gives_up_life_to_save_her_daughter_during_tornado/</t>
   </si>
   <si>
     <t>http://www.masslive.com/news/index.ssf/2015/01/several_days_of_news_on_the_future_of_cathedral_follow_the_latest.html</t>
   </si>
   <si>
+    <t>http://www.prnewswire.com/news-releases/red-cross-helping-after-tornadoes-tear-through-massachusetts-123031908.html</t>
+  </si>
+  <si>
     <t>http://www.stormtimemachine.com/20110601.html</t>
   </si>
   <si>
-    <t>http://www.masslive.com/news/index.ssf/2011/06/springfield_tornado_death_toll.html</t>
-  </si>
-  <si>
-    <t>http://www.boston.com/news/local/massachusetts/articles/2011/06/03/victims_lament_massachusetts_tornadoes_huge_toll/</t>
-  </si>
-  <si>
-    <t>http://www.bostonherald.com/news/regional/view/2011_0611gov_patrick_requests_federal_disaster_aid_for_tornadoes/</t>
-  </si>
-  <si>
-    <t>http://www.prnewswire.com/news-releases/red-cross-helping-after-tornadoes-tear-through-massachusetts-123031908.html</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20120406092705/http://articles.boston.com/2011-06-18/news/29674671_1_recovery-centers-insurance-claims-fema</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20110611080404/http://community.railstotrails.org/blogs/trailblog/archive/2011/06/03/tornado-damages-springfield-riverwalk-in-massachusetts.aspx</t>
-  </si>
-  <si>
-    <t>https://www.telegram.com/news/20180609/65-years-ago-nightmare-tornado-killed-94-central-mass</t>
-  </si>
-  <si>
-    <t>https://abcnews.go.com/US/massachusetts-rocked-multiple-tornadoes-including-city-springfield-possibly/story?id=13737522&amp;sms_ss=facebook&amp;at_xt=4de6f2afa93a9b3a,0</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20110603111417/http://www.boston.com/news/weather/articles/2011/06/03/mother_gives_up_life_to_save_her_daughter_during_tornado/</t>
+    <t>https://web.archive.org/web/20120322001638/http://www.wwlp.com/dpp/news/local/hampden/hundreds-still-homeless-after-tornadoes</t>
+  </si>
+  <si>
+    <t>http://forecast.weather.gov/product.php?site%3DNWS%26issuedby%3DGYX%26product%3DPNS%26format%3DCI%26version%3D2%26glossary%3D0</t>
+  </si>
+  <si>
+    <t>https://web.archive.org/web/20110609020449/http://www.boston.com/news/local/breaking_news/2011/06/in_brimfield_te.html</t>
+  </si>
+  <si>
+    <t>http://www.spc.noaa.gov/products/watch/ww0411.html</t>
+  </si>
+  <si>
+    <t>http://www.tornadohistoryproject.com/tornado/20110601.25.1</t>
+  </si>
+  <si>
+    <t>http://www.tornadohistoryproject.com/tornado/Massachusetts/map</t>
+  </si>
+  <si>
+    <t>http://www.gazettenet.com/2011/06/02/governor-patrick-sen-kerry-survey-destruction-in-western-massachusetts</t>
   </si>
   <si>
     <t>http://www.spc.noaa.gov/products/watch/ww0410.html</t>
@@ -205,31 +226,10 @@
     <t>http://www.fema.gov/news/eventcounties.fema?id=14733</t>
   </si>
   <si>
-    <t>https://web.archive.org/web/20110609020449/http://www.boston.com/news/local/breaking_news/2011/06/in_brimfield_te.html</t>
-  </si>
-  <si>
-    <t>http://www.tornadohistoryproject.com/tornado/20110601.25.1</t>
-  </si>
-  <si>
     <t>https://web.archive.org/web/20110613140257/http://www.spc.noaa.gov/climo/torn/fataltorn.html</t>
   </si>
   <si>
-    <t>http://www.gazettenet.com/2011/06/02/governor-patrick-sen-kerry-survey-destruction-in-western-massachusetts</t>
-  </si>
-  <si>
-    <t>http://www.tornadohistoryproject.com/tornado/Massachusetts/map</t>
-  </si>
-  <si>
     <t>https://web.archive.org/web/20111002155822/http://www.wggb.com/story/14943481/helping-homeless-tornado-victims</t>
-  </si>
-  <si>
-    <t>https://web.archive.org/web/20120322001638/http://www.wwlp.com/dpp/news/local/hampden/hundreds-still-homeless-after-tornadoes</t>
-  </si>
-  <si>
-    <t>http://www.spc.noaa.gov/products/watch/ww0411.html</t>
-  </si>
-  <si>
-    <t>http://forecast.weather.gov/product.php?site%3DNWS%26issuedby%3DGYX%26product%3DPNS%26format%3DCI%26version%3D2%26glossary%3D0</t>
   </si>
 </sst>
 </file>
@@ -631,7 +631,7 @@
         <v>30</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D2" t="s">
         <v>43</v>
@@ -648,10 +648,10 @@
         <v>31</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E3" s="2" t="s">
         <v>48</v>
@@ -665,10 +665,10 @@
         <v>32</v>
       </c>
       <c r="C4">
-        <v>819</v>
+        <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E4" s="2" t="s">
         <v>49</v>
@@ -682,10 +682,10 @@
         <v>33</v>
       </c>
       <c r="C5">
-        <v>1340</v>
+        <v>2</v>
       </c>
       <c r="D5" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>50</v>
@@ -696,13 +696,13 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>2565</v>
       </c>
       <c r="D6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>51</v>
@@ -713,13 +713,13 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C7">
         <v>2</v>
       </c>
       <c r="D7" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E7" s="2" t="s">
         <v>52</v>
@@ -730,10 +730,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C8">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
         <v>46</v>
@@ -747,13 +747,13 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C9">
-        <v>10</v>
+        <v>819</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" s="2" t="s">
         <v>54</v>
@@ -764,10 +764,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="D10" t="s">
         <v>43</v>
@@ -781,13 +781,13 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C11">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>56</v>
@@ -798,13 +798,13 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C12">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" s="2" t="s">
         <v>57</v>
@@ -815,10 +815,10 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C13">
-        <v>2565</v>
+        <v>1340</v>
       </c>
       <c r="D13" t="s">
         <v>45</v>
@@ -832,13 +832,13 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>30</v>
+        <v>40</v>
       </c>
       <c r="C14">
         <v>1</v>
       </c>
       <c r="D14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>59</v>
@@ -849,10 +849,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D15" t="s">
         <v>46</v>
